--- a/python/statistical_results.xlsx
+++ b/python/statistical_results.xlsx
@@ -17,6 +17,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+  <si>
+    <t>Population</t>
+  </si>
   <si>
     <t>E0</t>
   </si>
@@ -40,9 +43,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>tau</t>
   </si>
   <si>
     <t>d_E</t>
@@ -415,53 +415,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="14" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="2">
+    <row r="1" spans="1:14">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
         <v>103</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>107</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>110</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>111</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>112</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>204</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>207</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>302</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>307</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" s="2">
+        <v>311</v>
+      </c>
+      <c r="N1" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
@@ -476,7 +482,7 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1">
@@ -488,390 +494,424 @@
       <c r="K2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.051303234604175E-96</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2.887999091823224E-84</v>
+        <v>5.736070922588375E-79</v>
       </c>
       <c r="D3" s="1">
-        <v>5.41541693876355E-75</v>
+        <v>8.201252863606528E-157</v>
       </c>
       <c r="E3" s="1">
-        <v>4.281507461616641E-163</v>
+        <v>1.943716137269498E-40</v>
       </c>
       <c r="F3" s="1">
-        <v>7.887106177938209E-124</v>
+        <v>1.25038452883171E-92</v>
       </c>
       <c r="G3" s="1">
-        <v>2.707867481421945E-214</v>
+        <v>2.746185980001536E-95</v>
       </c>
       <c r="H3" s="1">
-        <v>2.631776450484672E-243</v>
+        <v>3.065693423110784E-87</v>
       </c>
       <c r="I3" s="1">
-        <v>8.432892136561867E-14</v>
+        <v>2.419574654569868E-27</v>
       </c>
       <c r="J3" s="1">
-        <v>6.418072004459396E-238</v>
+        <v>9.890714416275523E-18</v>
       </c>
       <c r="K3" s="1">
-        <v>1.238299146986193E-65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>5.600531388562544E-101</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.287115802269198E-43</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3.136779579599217E-79</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5.085364558751059E-58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.638240039702112E-150</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>7.382192089069932E-238</v>
+        <v>1.371111496392814E-264</v>
       </c>
       <c r="D4" s="1">
-        <v>2.132598349405802E-174</v>
+        <v>2.453026871571412E-226</v>
       </c>
       <c r="E4" s="1">
-        <v>7.862737971956759E-129</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>2.727200908892559E-200</v>
+        <v>1.416885010967597E-197</v>
       </c>
       <c r="G4" s="1">
-        <v>1.012001630154846E-202</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>3.020515914762194E-236</v>
+        <v>1.117684758178369E-185</v>
       </c>
       <c r="I4" s="1">
-        <v>1.71281317130499E-63</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>2.437033669328448E-128</v>
+        <v>4.081479533649371E-18</v>
       </c>
       <c r="K4" s="1">
-        <v>8.195810757476699E-99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>9.354361889100043E-172</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5.152145622779056E-34</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9.083795323066778E-287</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.016987595676279E-21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.135561871714046E-125</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>6.385404517147995E-13</v>
+        <v>1.177770368342345E-298</v>
       </c>
       <c r="D5" s="1">
-        <v>6.384127774289278E-112</v>
+        <v>3.14890941452378E-128</v>
       </c>
       <c r="E5" s="1">
-        <v>2.060297171989904E-147</v>
+        <v>1.747703558972563E-250</v>
       </c>
       <c r="F5" s="1">
-        <v>3.223647990387437E-114</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>2.250952929431417E-217</v>
+        <v>1.258725759057358E-174</v>
       </c>
       <c r="H5" s="1">
-        <v>5.16223688255954E-228</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1.722504881705542E-117</v>
+        <v>1.896993954788494E-58</v>
       </c>
       <c r="J5" s="1">
-        <v>5.428361064279508E-108</v>
+        <v>1.7462895104354E-86</v>
       </c>
       <c r="K5" s="1">
-        <v>2.519883408668959E-124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>4.045576304383938E-15</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.93030716114862E-302</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8.246336947987357E-103</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>6.674580420931402E-92</v>
+        <v>6.212538235437649E-106</v>
       </c>
       <c r="D6" s="1">
-        <v>7.105992989037848E-18</v>
+        <v>2.326352678983143E-152</v>
       </c>
       <c r="E6" s="1">
-        <v>2.136606783294897E-77</v>
+        <v>6.758363974061089E-15</v>
       </c>
       <c r="F6" s="1">
-        <v>2.981261270747929E-58</v>
+        <v>2.586508178219999E-30</v>
       </c>
       <c r="G6" s="1">
-        <v>2.956157743102278E-240</v>
+        <v>2.584222312282732E-38</v>
       </c>
       <c r="H6" s="1">
-        <v>6.716030462429269E-19</v>
+        <v>1.374535444075469E-158</v>
       </c>
       <c r="I6" s="1">
-        <v>5.238598667628091E-200</v>
+        <v>1.089930507285012E-104</v>
       </c>
       <c r="J6" s="1">
-        <v>8.263620478946459E-08</v>
+        <v>3.476895463895735E-145</v>
       </c>
       <c r="K6" s="1">
-        <v>3.003161535130081E-21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>1.025706810587251E-30</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.120186183417493E-71</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.14707546021654E-141</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.559094468135649E-159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.2385776091094682</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>4.082571755876922E-109</v>
+        <v>6.933681581875486E-54</v>
       </c>
       <c r="D7" s="1">
-        <v>6.391460861502364E-15</v>
+        <v>1.051363208635876E-45</v>
       </c>
       <c r="E7" s="1">
-        <v>0.6321523781683265</v>
+        <v>3.790375845763409E-21</v>
       </c>
       <c r="F7" s="1">
-        <v>0.000549815280861856</v>
+        <v>0.4067987231265066</v>
       </c>
       <c r="G7" s="1">
-        <v>0.01560289354642283</v>
+        <v>1.141275310890771E-08</v>
       </c>
       <c r="H7" s="1">
-        <v>0.003801564579095674</v>
+        <v>0.005084133580669766</v>
       </c>
       <c r="I7" s="1">
-        <v>1.114649444645296E-06</v>
+        <v>4.859983986658575E-189</v>
       </c>
       <c r="J7" s="1">
-        <v>4.712771380224505E-152</v>
+        <v>6.629636288416293E-16</v>
       </c>
       <c r="K7" s="1">
-        <v>0.2555691384660109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>3.210753323269074E-184</v>
+      </c>
+      <c r="L7" s="1">
+        <v>7.957696855317681E-07</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.706266259789365E-282</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.9129205358667571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7.493087998518589E-231</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>9.887513817090502E-12</v>
+        <v>2.067219330694292E-66</v>
       </c>
       <c r="D8" s="1">
-        <v>8.711550132447103E-280</v>
+        <v>3.348005280292855E-73</v>
       </c>
       <c r="E8" s="1">
-        <v>3.151448922174191E-112</v>
+        <v>1.778184284629517E-100</v>
       </c>
       <c r="F8" s="1">
-        <v>4.407375164306786E-224</v>
+        <v>8.968818899963521E-31</v>
       </c>
       <c r="G8" s="1">
-        <v>1.10478377055955E-153</v>
+        <v>3.059166541405808E-113</v>
       </c>
       <c r="H8" s="1">
-        <v>5.993610838358875E-60</v>
+        <v>4.615520668767306E-92</v>
       </c>
       <c r="I8" s="1">
-        <v>1.968908045354111E-54</v>
+        <v>2.466006288797201E-166</v>
       </c>
       <c r="J8" s="1">
-        <v>6.471167221402174E-14</v>
+        <v>3.036289964263648E-06</v>
       </c>
       <c r="K8" s="1">
-        <v>7.316041688041291E-87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>5.049832746882446E-49</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.808510102382183E-62</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.919441547857226E-91</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6.789836984311436E-55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9.304632982930849E-125</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>5.493904245947604E-87</v>
+        <v>6.354623950117532E-53</v>
       </c>
       <c r="D9" s="1">
-        <v>1.31835215605507E-144</v>
+        <v>1.095839484082833E-59</v>
       </c>
       <c r="E9" s="1">
-        <v>2.554131362233165E-136</v>
+        <v>1.74390188868024E-48</v>
       </c>
       <c r="F9" s="1">
-        <v>4.581585167241371E-11</v>
+        <v>7.482741715466706E-122</v>
       </c>
       <c r="G9" s="1">
-        <v>2.473670932398488E-198</v>
+        <v>1.289553226377031E-126</v>
       </c>
       <c r="H9" s="1">
-        <v>7.166029884106371E-165</v>
+        <v>1.240407322143152E-29</v>
       </c>
       <c r="I9" s="1">
-        <v>3.725838358795259E-139</v>
+        <v>1.613283634561361E-30</v>
       </c>
       <c r="J9" s="1">
-        <v>0.2008920961547914</v>
+        <v>0.9180715563473624</v>
       </c>
       <c r="K9" s="1">
-        <v>1.638238152300802E-66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>7.170268914651561E-35</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7.293875624194028E-17</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.180620132593329E-34</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.001323590902210896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.3425463212787038</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>1.186670806105442E-104</v>
+        <v>2.638398577913051E-30</v>
       </c>
       <c r="D10" s="1">
-        <v>5.121010572732973E-05</v>
+        <v>1.442980498584267E-56</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003890966272174804</v>
+        <v>9.50338131889539E-44</v>
       </c>
       <c r="F10" s="1">
-        <v>5.135363400773656E-37</v>
+        <v>1.13408944199719E-87</v>
       </c>
       <c r="G10" s="1">
-        <v>5.696121784009275E-178</v>
+        <v>5.452159837052984E-105</v>
       </c>
       <c r="H10" s="1">
-        <v>6.180045566584735E-243</v>
+        <v>8.054567707712919E-67</v>
       </c>
       <c r="I10" s="1">
-        <v>0.2555179260736433</v>
+        <v>3.745166762418015E-05</v>
       </c>
       <c r="J10" s="1">
-        <v>9.376648297070744E-15</v>
+        <v>0.2657231888170067</v>
       </c>
       <c r="K10" s="1">
-        <v>1.100598413968111E-73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>7.745290705343706E-22</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4.158653155271457E-29</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.03177413118822996</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6.820001325087204E-62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9.901690679156266E-29</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>1.716441877133542E-112</v>
+        <v>3.497520328413132E-94</v>
       </c>
       <c r="D11" s="1">
-        <v>5.572828896282105E-09</v>
+        <v>1.367065001654372E-59</v>
       </c>
       <c r="E11" s="1">
-        <v>0.03417285825442774</v>
+        <v>2.102765887449091E-47</v>
       </c>
       <c r="F11" s="1">
-        <v>1.208437453146615E-24</v>
+        <v>1.372884124688533E-131</v>
       </c>
       <c r="G11" s="1">
-        <v>0.001540715258410427</v>
+        <v>1.419801790806921E-141</v>
       </c>
       <c r="H11" s="1">
-        <v>1.477542031146774E-144</v>
+        <v>6.39965286822839E-09</v>
       </c>
       <c r="I11" s="1">
-        <v>4.850791786797297E-07</v>
+        <v>0.7815681960631932</v>
       </c>
       <c r="J11" s="1">
-        <v>4.854534734795359E-14</v>
+        <v>1.025984979772556E-18</v>
       </c>
       <c r="K11" s="1">
-        <v>3.102143022035237E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>9.021141334467114E-77</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.246156087977422E-30</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.355114494031312E-77</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.3440121990755389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5.54811499197824E-145</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>3.021630769082006E-83</v>
+        <v>0.006588291630004297</v>
       </c>
       <c r="D12" s="1">
-        <v>1.797158464690393E-73</v>
+        <v>4.962696265208752E-18</v>
       </c>
       <c r="E12" s="1">
-        <v>3.141740630035237E-126</v>
+        <v>4.572201776041286E-05</v>
       </c>
       <c r="F12" s="1">
-        <v>1.237186486381038E-121</v>
+        <v>8.608554857669067E-06</v>
       </c>
       <c r="G12" s="1">
-        <v>1.038743795016421E-41</v>
+        <v>2.271689066893927E-08</v>
       </c>
       <c r="H12" s="1">
-        <v>3.173059643922967E-159</v>
+        <v>1.277794729081559E-07</v>
       </c>
       <c r="I12" s="1">
-        <v>0.7505340234923596</v>
+        <v>1.103301391301892E-78</v>
       </c>
       <c r="J12" s="1">
-        <v>2.260722495418131E-48</v>
+        <v>1.757850936779325E-09</v>
       </c>
       <c r="K12" s="1">
-        <v>5.4731771677806E-177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2.665447323185329E-61</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.775156774876299E-15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9.99336389109561E-20</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.637326514030091E-28</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.822694169858292E-17</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1.866880214440665E-26</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1.028798540319409E-94</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.1177990296984476</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.00350936189052238</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.001637100202496065</v>
+        <v>9.904808552734235E-06</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.496312780221976E-22</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.442676967799842E-116</v>
+      </c>
+      <c r="N12" s="1">
+        <v>9.176316961633866E-13</v>
       </c>
     </row>
   </sheetData>
@@ -881,53 +921,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="3" customWidth="1"/>
+    <col min="2" max="14" width="15.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="2">
+    <row r="1" spans="1:14">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
         <v>103</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>107</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>110</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>111</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>112</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>204</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>207</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>302</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>307</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" s="2">
+        <v>311</v>
+      </c>
+      <c r="N1" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="3">
@@ -939,6 +988,12 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
@@ -948,390 +1003,424 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>9.412742204603996</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>8.88062338064676</v>
+        <v>7.083581592672486</v>
       </c>
       <c r="D3" s="3">
-        <v>4.601883775473296</v>
+        <v>-21.36804163830345</v>
       </c>
       <c r="E3" s="3">
-        <v>14.56741109146659</v>
+        <v>3.123622667280939</v>
       </c>
       <c r="F3" s="3">
-        <v>14.31837066545384</v>
+        <v>8.244242348185251</v>
       </c>
       <c r="G3" s="3">
-        <v>23.42738612184225</v>
+        <v>11.89139404180704</v>
       </c>
       <c r="H3" s="3">
-        <v>69.05609566144058</v>
+        <v>4.927737402553421</v>
       </c>
       <c r="I3" s="3">
-        <v>1.133642009393075</v>
+        <v>-2.063133108587144</v>
       </c>
       <c r="J3" s="3">
-        <v>-108.5721509861027</v>
+        <v>-1.33539028862935</v>
       </c>
       <c r="K3" s="3">
-        <v>3.866371247118481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>-13.59251357027693</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2.834079289948537</v>
+      </c>
+      <c r="M3" s="3">
+        <v>6.571147818015683</v>
+      </c>
+      <c r="N3" s="3">
+        <v>4.604001760926689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>43.15096711420841</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>322.6093201740027</v>
+        <v>597.0228208635698</v>
       </c>
       <c r="D4" s="3">
-        <v>74.81655580026728</v>
+        <v>247.4337156775761</v>
       </c>
       <c r="E4" s="3">
-        <v>26.16894831019926</v>
+        <v>7261.613613200232</v>
       </c>
       <c r="F4" s="3">
-        <v>135.8259043075605</v>
+        <v>127.5919738258564</v>
       </c>
       <c r="G4" s="3">
-        <v>143.6449651530331</v>
+        <v>4298.249000598749</v>
       </c>
       <c r="H4" s="3">
-        <v>310.8548422768162</v>
+        <v>97.01400339256006</v>
       </c>
       <c r="I4" s="3">
-        <v>-5.650506414054246</v>
+        <v>4120.700515059089</v>
       </c>
       <c r="J4" s="3">
-        <v>25.87373733516396</v>
+        <v>-1.496191802651749</v>
       </c>
       <c r="K4" s="3">
-        <v>13.05397351506329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>70.39905322904715</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2.600214759618123</v>
+      </c>
+      <c r="M4" s="3">
+        <v>994.9007329634519</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-1.710800055383393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-24.32722094580608</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>-1.161740269543842</v>
+        <v>-1308.133294174785</v>
       </c>
       <c r="D5" s="3">
-        <v>-17.69933529896427</v>
+        <v>25.80732020726018</v>
       </c>
       <c r="E5" s="3">
-        <v>-40.17537357072251</v>
+        <v>-431.4553806717432</v>
       </c>
       <c r="F5" s="3">
-        <v>-18.66641261535242</v>
+        <v>-4203.708176711883</v>
       </c>
       <c r="G5" s="3">
-        <v>-201.2930045662083</v>
+        <v>-75.21219941210283</v>
       </c>
       <c r="H5" s="3">
-        <v>-257.1745789751888</v>
+        <v>-9938.065865167793</v>
       </c>
       <c r="I5" s="3">
-        <v>-20.13509086351817</v>
+        <v>4.990346305061768</v>
       </c>
       <c r="J5" s="3">
-        <v>16.15814561941032</v>
+        <v>9.784523200181031</v>
       </c>
       <c r="K5" s="3">
-        <v>-23.58222546333696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>-1.303752337116823</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-1417.158341585705</v>
+      </c>
+      <c r="M5" s="3">
+        <v>-3281.915195591912</v>
+      </c>
+      <c r="N5" s="3">
+        <v>-4871.191455607091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-9.900874835908017</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>11.1025138335141</v>
+        <v>-9.725445882609881</v>
       </c>
       <c r="D6" s="3">
-        <v>-1.474272816796796</v>
+        <v>44.19207835128896</v>
       </c>
       <c r="E6" s="3">
-        <v>5.004656059492577</v>
+        <v>1.28729492254071</v>
       </c>
       <c r="F6" s="3">
-        <v>4.858580024594975</v>
+        <v>-2.320987979526445</v>
       </c>
       <c r="G6" s="3">
-        <v>-159.475982833085</v>
+        <v>2.944057764918676</v>
       </c>
       <c r="H6" s="3">
-        <v>1.45159613286997</v>
+        <v>-51.60267281328351</v>
       </c>
       <c r="I6" s="3">
-        <v>-19.83354628026313</v>
+        <v>14.96566789492688</v>
       </c>
       <c r="J6" s="3">
-        <v>0.7864231534036645</v>
+        <v>10.93637479442084</v>
       </c>
       <c r="K6" s="3">
-        <v>-1.544945484067872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>2.308097706066399</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-6.841415111119419</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-24.91146101324216</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-53.09977832372046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1663456340052299</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>-10.89819551543427</v>
+        <v>-3.159081353780015</v>
       </c>
       <c r="D7" s="3">
-        <v>1.240156478373663</v>
+        <v>3.42223941328553</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0674659964375626</v>
+        <v>1.68871493704602</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.4983421017089606</v>
+        <v>0.1169794928410737</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.3435303652490624</v>
+        <v>-0.8646082373497722</v>
       </c>
       <c r="H7" s="3">
-        <v>-0.4130899818710368</v>
+        <v>0.399774786622083</v>
       </c>
       <c r="I7" s="3">
-        <v>0.7097941939241084</v>
+        <v>-18.3063283022867</v>
       </c>
       <c r="J7" s="3">
-        <v>33.76126379536925</v>
+        <v>1.256119287236983</v>
       </c>
       <c r="K7" s="3">
-        <v>-0.160449244566439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>16.47371519698918</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-0.7183506553717443</v>
+      </c>
+      <c r="M7" s="3">
+        <v>51.35249255947863</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.01540793372232597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-28.44149082523512</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>1.077677042329441</v>
+        <v>-6.066003549333892</v>
       </c>
       <c r="D8" s="3">
-        <v>-48.99305296674503</v>
+        <v>-7.037701076685911</v>
       </c>
       <c r="E8" s="3">
-        <v>-10.76092069017412</v>
+        <v>-13.56945240477172</v>
       </c>
       <c r="F8" s="3">
-        <v>-40.25579947762476</v>
+        <v>-2.336425024375329</v>
       </c>
       <c r="G8" s="3">
-        <v>-32.84716977814291</v>
+        <v>-18.24836600678725</v>
       </c>
       <c r="H8" s="3">
-        <v>4.01606650880529</v>
+        <v>-10.88582203418657</v>
       </c>
       <c r="I8" s="3">
-        <v>-4.127582622164622</v>
+        <v>-61.78625567836293</v>
       </c>
       <c r="J8" s="3">
-        <v>-1.221227759997416</v>
+        <v>0.6799560310191448</v>
       </c>
       <c r="K8" s="3">
-        <v>-8.715789659446983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>-3.873960645732211</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-4.573800903211843</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-10.99073548490701</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-3.087107892511352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10.24354643715386</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>-7.481377544010676</v>
+        <v>3.670233402742766</v>
       </c>
       <c r="D9" s="3">
-        <v>10.53719379160021</v>
+        <v>4.139189299577895</v>
       </c>
       <c r="E9" s="3">
-        <v>-9.134545675985578</v>
+        <v>-3.87337308124975</v>
       </c>
       <c r="F9" s="3">
-        <v>1.03331861809304</v>
+        <v>-11.35160579378822</v>
       </c>
       <c r="G9" s="3">
-        <v>-40.73634273035916</v>
+        <v>-8.375540860444962</v>
       </c>
       <c r="H9" s="3">
-        <v>-27.90601166097525</v>
+        <v>1.885814970391376</v>
       </c>
       <c r="I9" s="3">
-        <v>9.867922744508819</v>
+        <v>-1.969770642886565</v>
       </c>
       <c r="J9" s="3">
-        <v>-0.1808475321097373</v>
+        <v>-0.01449451358527104</v>
       </c>
       <c r="K9" s="3">
-        <v>-4.896749849362928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>2.203912450270266</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.305714837839547</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-2.649343768341383</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.4624400926666375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.1339001521961478</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>13.88024947207482</v>
+        <v>-1.916571993585333</v>
       </c>
       <c r="D10" s="3">
-        <v>0.5861754210862059</v>
+        <v>3.223402842932998</v>
       </c>
       <c r="E10" s="3">
-        <v>-0.4110302488523697</v>
+        <v>2.576852867271447</v>
       </c>
       <c r="F10" s="3">
-        <v>2.403790861858676</v>
+        <v>10.04939713794345</v>
       </c>
       <c r="G10" s="3">
-        <v>22.06070810245603</v>
+        <v>-14.10030339159692</v>
       </c>
       <c r="H10" s="3">
-        <v>101.9144490411364</v>
+        <v>-5.275251199363511</v>
       </c>
       <c r="I10" s="3">
-        <v>-0.1605948650511479</v>
+        <v>-0.5954280027824395</v>
       </c>
       <c r="J10" s="3">
-        <v>-1.222911378548987</v>
+        <v>0.1570564625543041</v>
       </c>
       <c r="K10" s="3">
-        <v>-4.700893719138723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>1.531557024124118</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-2.202064713252367</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.3050746026254976</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-3.458753229334646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.968937608879225</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>15.91972596672824</v>
+        <v>11.64698344140639</v>
       </c>
       <c r="D11" s="3">
-        <v>0.8783921651652701</v>
+        <v>5.028317582196579</v>
       </c>
       <c r="E11" s="3">
-        <v>0.3009782758040651</v>
+        <v>3.767501958477282</v>
       </c>
       <c r="F11" s="3">
-        <v>1.752004838718676</v>
+        <v>23.80267247235005</v>
       </c>
       <c r="G11" s="3">
-        <v>0.4574994712973122</v>
+        <v>35.07921569901345</v>
       </c>
       <c r="H11" s="3">
-        <v>37.08513711381962</v>
+        <v>0.8813385728675246</v>
       </c>
       <c r="I11" s="3">
-        <v>-0.7517592776597353</v>
+        <v>-0.03907105982598764</v>
       </c>
       <c r="J11" s="3">
-        <v>1.227501102541296</v>
+        <v>-1.381286334536215</v>
       </c>
       <c r="K11" s="3">
-        <v>-0.6870364715619262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>-4.273514489992204</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2.207172765128619</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5.92305258987265</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.133482833951482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>36.46678160811153</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>9.063770044782524</v>
+        <v>0.3904682638213524</v>
       </c>
       <c r="D12" s="3">
-        <v>7.173807317892681</v>
+        <v>1.405608032084332</v>
       </c>
       <c r="E12" s="3">
-        <v>22.49695351572628</v>
+        <v>0.5999212617231479</v>
       </c>
       <c r="F12" s="3">
-        <v>22.10057343806911</v>
+        <v>-0.6601521860042093</v>
       </c>
       <c r="G12" s="3">
-        <v>3.212503870294246</v>
+        <v>0.845327977514994</v>
       </c>
       <c r="H12" s="3">
-        <v>52.72469009938644</v>
+        <v>-0.7801956971390118</v>
       </c>
       <c r="I12" s="3">
-        <v>0.04480133823769249</v>
+        <v>8.139226927548368</v>
       </c>
       <c r="J12" s="3">
-        <v>-2.835842069330563</v>
+        <v>0.9279694195361085</v>
       </c>
       <c r="K12" s="3">
-        <v>22.88741745203678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3.540594656427095</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.286477403153101</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-1.478626274389988</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.038971783069874</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1.400857854485916</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1.740187290675819</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5.46415517059443</v>
-      </c>
-      <c r="I13" s="3">
-        <v>-0.2212778706807723</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.4204864355008692</v>
-      </c>
-      <c r="K13" s="3">
-        <v>-0.4518130181777718</v>
+        <v>-0.6542301004636147</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.730193136067863</v>
+      </c>
+      <c r="M12" s="3">
+        <v>8.300851507544682</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-1.151464354283312</v>
       </c>
     </row>
   </sheetData>
@@ -1341,106 +1430,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="14" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="2">
+    <row r="1" spans="1:14">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
         <v>103</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>107</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>110</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>111</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>112</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>204</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>207</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>302</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>307</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" s="2">
+        <v>311</v>
+      </c>
+      <c r="N1" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2.998152574549742E-272</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>8.770785953699735E-44</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1461,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>1.047690576500496E-129</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1469,16 +1588,22 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>0.9999999841002022</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1502,24 +1627,30 @@
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.9999999999999974</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999309395561019</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1528,62 +1659,74 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>6.620426383087922E-170</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0.006472969303396496</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0.9999999997969069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.46869402889932E-90</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.6436688248414792</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>6.554589828286079E-176</v>
+        <v>0.9999999999999805</v>
       </c>
       <c r="F7" s="1">
-        <v>1.783009286713166E-21</v>
+        <v>7.320507481964036E-136</v>
       </c>
       <c r="G7" s="1">
-        <v>1.685204157955294E-20</v>
+        <v>5.146647978995242E-30</v>
       </c>
       <c r="H7" s="1">
-        <v>2.908348154748147E-32</v>
+        <v>0.0005629759215933921</v>
       </c>
       <c r="I7" s="1">
-        <v>9.071205249673066E-46</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>2.457673772835345E-06</v>
       </c>
       <c r="K7" s="1">
-        <v>3.110456032445144E-19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.323098447615277E-06</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.588004750892371E-19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.9950397725362791</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1604,18 +1747,24 @@
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0.9999999999415341</v>
+        <v>4.52391024270436E-43</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1627,42 +1776,48 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0.9999940147678806</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0.9999999991159813</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>2.190205854211951E-07</v>
+        <v>0.169969831277187</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="1">
+        <v>0.9999999996661417</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.9974271291630541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.05032379657207895</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2.259499403635419E-67</v>
       </c>
       <c r="D10" s="1">
-        <v>2.663896156003408E-11</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.1603129310985382</v>
+        <v>0.06419273171903378</v>
       </c>
       <c r="F10" s="1">
-        <v>0.9999999999992941</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1671,118 +1826,104 @@
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>2.597558163722242E-29</v>
+        <v>2.696878312514468E-116</v>
       </c>
       <c r="J10" s="1">
-        <v>0.9999968927744405</v>
+        <v>3.486587562849621E-159</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.239254177547441E-143</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.9999999765487957</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0.9295981829971405</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>6.706386240481711E-44</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>7.377962978891188E-42</v>
       </c>
       <c r="I11" s="1">
-        <v>0.999999093156854</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0.9999999999999154</v>
+        <v>5.086147737078286E-161</v>
       </c>
       <c r="K11" s="1">
-        <v>0.9997444837185485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.8068623987231891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0.9967040516294007</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0.9999771386338191</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0.9999956933052389</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0.9999999885916924</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0.9999999360510384</v>
       </c>
       <c r="I12" s="1">
-        <v>1.09450105989467E-30</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0.9999999990920888</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.9999999999999761</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.6709727803338348</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.9926657059552892</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.9943948106018129</v>
+        <v>0.9999950454199676</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.9999999999995411</v>
       </c>
     </row>
   </sheetData>

--- a/python/statistical_results.xlsx
+++ b/python/statistical_results.xlsx
@@ -16,43 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>E0</t>
   </si>
@@ -61,9 +25,6 @@
   </si>
   <si>
     <t>T0</t>
-  </si>
-  <si>
-    <t>p</t>
   </si>
   <si>
     <t>c</t>
@@ -448,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,96 +420,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
+      <c r="B1" s="2">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2">
+        <v>204</v>
+      </c>
+      <c r="H1" s="2">
+        <v>207</v>
+      </c>
+      <c r="I1" s="2">
+        <v>302</v>
+      </c>
+      <c r="J1" s="2">
+        <v>307</v>
+      </c>
+      <c r="K1" s="2">
+        <v>308</v>
+      </c>
+      <c r="L1" s="2">
+        <v>311</v>
+      </c>
+      <c r="M1" s="2">
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.474392195292853E-164</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.856242913498941E-165</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.988973865345062E-165</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.018467151391768E-109</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.856203371192136E-165</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.168645445006871E-41</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5.85617700980204E-165</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.743124787219449E-43</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5.856111106842462E-165</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.199217867649417E-05</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5.856242913498941E-165</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.003972368291881753</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.136353456675241E-188</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.136362675176324E-188</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.136353456675241E-188</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.136362675176324E-188</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.13637189370343E-188</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.13634423820179E-188</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.136325801335636E-188</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.136325801335636E-188</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.13637189370343E-188</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.136316582943292E-188</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3.13637189370343E-188</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3.136325801335636E-188</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.856190190482088E-165</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.85621655193085E-165</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.856190190482088E-165</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.312463107829817E-162</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.856229732700895E-165</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.856190190482088E-165</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.480711596962393E-30</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8.666358091140809E-128</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6.807449369594864E-67</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7.584705492494194E-126</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7.764317258097955E-165</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5.856229732700895E-165</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.784325661312387E-42</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.856137467937895E-165</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0285364722207E-16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.767617771397172E-10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.856190190482088E-165</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0009092062014420068</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.992893532557122E-118</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.274693791679827E-11</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.856111106842462E-165</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.388074830605821E-08</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.311175839582009E-162</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.003234678094594344</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.856242913498941E-165</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.856111106842462E-165</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.856163829151325E-165</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.177498579565919E-147</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.856203371192136E-165</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.260105702388634E-112</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.856203371192136E-165</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.144128755483694E-07</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6.218339857410123E-165</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.527631644857802E-12</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.856137467937895E-165</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.08821952983214261</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.9129008655780324</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.006119740910281662</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.799844398990482E-118</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.111446842488666E-71</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.092983833141315E-15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.291314706572777E-79</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.856150648529278E-165</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.586495213228983E-33</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.856150648529278E-165</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.792070071102437E-07</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5.856150648529278E-165</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.288431263316551E-06</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.579669373311103E-07</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.748529404539212E-51</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.1078663968555808</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.486145018072772E-140</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.06079100097439801</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.433754744465397E-109</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.7687731341643345</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.023906248424596E-15</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.005820618497084707</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.98470376670037E-76</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8.796450016178513E-05</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.699883497693105E-41</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5.856190190482088E-165</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.860369324098321E-59</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.856203371192136E-165</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.072937445029801E-162</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.3871157482635212</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.6192072993799508</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.856163829151325E-165</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.391490226928312E-25</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5.856190190482088E-165</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5.65111111049086E-05</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5.856124287374512E-165</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.4433562693899729</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.420817419994294E-43</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.408548162572731E-06</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.627014493797584E-163</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.567939341424505E-163</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.079531431223226E-22</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.841090879158364E-90</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.9318547372213895</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.242453295325196E-163</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.415108980293132E-93</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.011175829613407E-23</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.899915192006273E-23</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3.276620079764005E-32</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +874,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -569,96 +885,442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
+      <c r="B1" s="2">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2">
+        <v>204</v>
+      </c>
+      <c r="H1" s="2">
+        <v>207</v>
+      </c>
+      <c r="I1" s="2">
+        <v>302</v>
+      </c>
+      <c r="J1" s="2">
+        <v>307</v>
+      </c>
+      <c r="K1" s="2">
+        <v>308</v>
+      </c>
+      <c r="L1" s="2">
+        <v>311</v>
+      </c>
+      <c r="M1" s="2">
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6.290650592693331</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-10.16108196332771</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6.113585584648076</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.634760798394227</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-21.95046466585301</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.7047542459532625</v>
+      </c>
+      <c r="H3" s="3">
+        <v>40.57859820744007</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.6339077814390869</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-80.7609707760639</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.2735422731203291</v>
+      </c>
+      <c r="L3" s="3">
+        <v>7.781843486710095</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-0.06211039540182062</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>32.65723730049993</v>
+      </c>
+      <c r="C4" s="3">
+        <v>16.7451648572676</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8.921898101543297</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11.13467953721343</v>
+      </c>
+      <c r="F4" s="3">
+        <v>73.67463456004819</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.9471330359851619</v>
+      </c>
+      <c r="H4" s="3">
+        <v>141.7512512035607</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.7301242206661985</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7.137494168929402</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.7468819173068576</v>
+      </c>
+      <c r="L4" s="3">
+        <v>36.76860111825528</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.8564365795702905</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>64.739686175701</v>
+      </c>
+      <c r="C5" s="3">
+        <v>66.43809255105633</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9.992162675922856</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-4.253800145116599</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6.426706299182466</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-22.17447114534006</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-0.7282108648256252</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-1.905024806959953</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-1.43971004174332</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-2.360782780396122</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3.454542805293991</v>
+      </c>
+      <c r="M5" s="3">
+        <v>12.18345988216682</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-0.6961788975296536</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.377428559560642</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.4852050602297515</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.2529716663612329</v>
+      </c>
+      <c r="F6" s="3">
+        <v>14.18632851699507</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1838965807577062</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-1.700574010205088</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.3301838979601519</v>
+      </c>
+      <c r="J6" s="3">
+        <v>33.91205931581164</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.1241069337469013</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.737796733759178</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-0.2941035838844492</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-25.07794224062696</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-7.722511102871449</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-8.839142122803823</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-3.046117004423323</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-25.78014444509497</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-2.007525421906455</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-99.30979642135084</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1493134068680132</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-6.065255132793902</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-0.1308848083619088</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-35.14763058425562</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-0.1106200874749895</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.4152712665351526</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2369040460142198</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1.879394922440149</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-1.060738509858181</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.4926455898986484</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.324326733803491</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-23.25142000980142</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-0.5989644737785089</v>
+      </c>
+      <c r="J8" s="3">
+        <v>30.5633904595386</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-0.2058072743648475</v>
+      </c>
+      <c r="L8" s="3">
+        <v>20.02831628118573</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-0.1523809017730532</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4283961753582478</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.7714410885554479</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.1723818801904407</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.367258149224218</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-0.5332704143976364</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1.947896791349586</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.250034149464924</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1409367270340062</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.3608033869543907</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.456867876747383</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-0.4039533713134664</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-0.7694452168329048</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15.54974788486198</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.22791776910062</v>
+      </c>
+      <c r="D10" s="3">
+        <v>12.93783827896907</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5.5879232627786</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-0.103253317063896</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.03690396403467139</v>
+      </c>
+      <c r="H10" s="3">
+        <v>53.9402830580503</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.3551670298035052</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-20.94800232366941</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.4689952227320383</v>
+      </c>
+      <c r="L10" s="3">
+        <v>7.995714101621527</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.07899083075118468</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.7443228096770363</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1836153724075066</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.512886585124327</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.391116821075874</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-0.7068878543350583</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.652634006504944</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.1263736602199355</v>
+      </c>
+      <c r="I11" s="3">
+        <v>8.801364025392935</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-1.24826894032683</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.7061597609271021</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-0.2300330742377903</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.9061932146752985</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -679,96 +1341,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
+      <c r="B1" s="2">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2">
+        <v>204</v>
+      </c>
+      <c r="H1" s="2">
+        <v>207</v>
+      </c>
+      <c r="I1" s="2">
+        <v>302</v>
+      </c>
+      <c r="J1" s="2">
+        <v>307</v>
+      </c>
+      <c r="K1" s="2">
+        <v>308</v>
+      </c>
+      <c r="L1" s="2">
+        <v>311</v>
+      </c>
+      <c r="M1" s="2">
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.425825537871705E-08</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.584245531768777E-98</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.705128174143327E-145</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.017174276474466E-47</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.304688929843998E-49</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.359257677974393E-131</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.7954875538290964</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.723744353720326E-277</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.549385183486177E-07</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.4563628626518485</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.667048473050763E-89</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.499911706053944E-226</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.110059082559989E-73</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.672973430224415E-147</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.026540261930464E-199</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7.476050945765338E-158</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2.261342787084198E-16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.245599247847482E-216</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.012592396261868E-06</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.257640673093627E-40</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.996306131772472</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.06627700593574139</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.9999999999999947</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.7250101382325838</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.9992171643619379</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.9999999989821515</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.000316795254259503</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.7964453868547718</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.000447193644590815</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.9270254186207965</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.004883079577154866</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.867453236483795E-284</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5.980604397135154E-20</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.470512081489808E-289</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.4598879816365402</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.8057142704152029</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.981871233024863E-194</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.999999999011018</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.6060669753214744</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.8651896907896077</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.03906192835370548</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.9583079478379207</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
